--- a/medicine/Psychotrope/Porto-vecchio_(AOC)/Porto-vecchio_(AOC).xlsx
+++ b/medicine/Psychotrope/Porto-vecchio_(AOC)/Porto-vecchio_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le porto-vecchio[3] ou vin de Corse Porto-Vecchio, est un vin produit autour de la ville de Porto-Vecchio, dans le département de la Corse-du-Sud.
+Le porto-vecchio ou vin de Corse Porto-Vecchio, est un vin produit autour de la ville de Porto-Vecchio, dans le département de la Corse-du-Sud.
 Il s'agit d'une des dénominations géographiques au sein de l'appellation vin de corse.
 </t>
         </is>
@@ -510,17 +522,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Histoire</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Antiquité
-Moyen Âge
-Période moderne
-Période contemporaine</t>
-        </is>
-      </c>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -543,10 +550,17 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étymologie</t>
+          <t>Situation géographique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le décret d'appellation détermine un terroir qui s'étend linéairement sur plus de 55 kilomètres. 
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -574,11 +588,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Le décret d'appellation détermine un terroir qui s'étend linéairement sur plus de 55 kilomètres. 
-Orographie
-Géologie
-Sols très propices à la vigne : du calcaire au sud, du granit fortement arénisé suivi de terres plus faciles, gneiss marneux. 
-Climatologie</t>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sols très propices à la vigne : du calcaire au sud, du granit fortement arénisé suivi de terres plus faciles, gneiss marneux. 
+</t>
         </is>
       </c>
     </row>
@@ -608,16 +625,89 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Présentation
-Le vignoble s'étend sur les communes de : Bonifacio, Conca, Lecci, Porto-Vecchio, San-Gavino-di-Carbini, Sari-Solenzara, Sotta et Zonza.
-Encépagement
-Les vins blancs sont issus principalement de la vermentino B (malvoisie de Corse), complété accessoirement par le biancu gentile B, la codivarta B, le genovese B et l'ugni blanc B (rossola).
+          <t>Présentation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le vignoble s'étend sur les communes de : Bonifacio, Conca, Lecci, Porto-Vecchio, San-Gavino-di-Carbini, Sari-Solenzara, Sotta et Zonza.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Porto-vecchio_(AOC)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Porto-vecchio_(AOC)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins blancs sont issus principalement de la vermentino B (malvoisie de Corse), complété accessoirement par le biancu gentile B, la codivarta B, le genovese B et l'ugni blanc B (rossola).
 Les vins rouges et rosés sont issus principalement du grenache N, du nielluccio N et du sciaccarello N, complétés accessoirement par du aléatico N, de la barbarossa N, du carcajolo nero N, du carignan N, du cinsaut N, du mourvèdre N, de la syrah N et du vermentino B (malvoisie de Corse).
-Méthodes culturales et réglementations
-Structure des exploitations
-Seuls deux producteurs de Lecci produisent l'AOC Porto-Vecchio.
-Terroir et vins
-Commercialisation</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Porto-vecchio_(AOC)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Porto-vecchio_(AOC)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Structure des exploitations</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Seuls deux producteurs de Lecci produisent l'AOC Porto-Vecchio.
+</t>
         </is>
       </c>
     </row>
